--- a/SWMH_exam.xlsx
+++ b/SWMH_exam.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,107 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yamakawa00\src\github.com\ryuchan00\Minlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E682DAAB-64CD-49A9-BFA3-EF730521350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D2C22-935A-4DA2-BB45-6039AE8185BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SWMH_exam" sheetId="1" r:id="rId1"/>
+    <sheet name="Minlistの探索が何回まで行えばよいか" sheetId="1" r:id="rId1"/>
+    <sheet name="ActiveIndexの割り当て表削減のメモリ測定" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Active Indexなし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Active Indexあり</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ActiveIndexの割り当て表削減のメモリ測定</t>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>単位:KB</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>要素数100</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>多重度100</t>
+    <rPh sb="0" eb="3">
+      <t>タジュウド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実行回数50回</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウカイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,6 +772,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Minlist</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>の探索が何回まで行えばよいか</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -736,7 +853,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$1:$APJ$1</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$1:$APJ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -4067,7 +4184,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$2:$APJ$2</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$2:$APJ$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -7398,7 +7515,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$3:$APJ$3</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$3:$APJ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -10729,7 +10846,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$4:$APJ$4</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$4:$APJ$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -14060,7 +14177,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$5:$APJ$5</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$5:$APJ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -17391,7 +17508,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$6:$APJ$6</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$6:$APJ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -20724,7 +20841,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$7:$APJ$7</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$7:$APJ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -24057,7 +24174,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$8:$APJ$8</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$8:$APJ$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -27390,7 +27507,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$9:$APJ$9</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$9:$APJ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -30723,7 +30840,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SWMH_exam!$B$10:$APJ$10</c:f>
+              <c:f>Minlistの探索が何回まで行えばよいか!$B$10:$APJ$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1101"/>
@@ -35125,10 +35242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:API10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -68187,4 +68306,467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39437D08-4E89-431D-A1BF-9C53A715C666}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="3" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>12260</v>
+      </c>
+      <c r="C2">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12340</v>
+      </c>
+      <c r="C3">
+        <v>8964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12240</v>
+      </c>
+      <c r="C4">
+        <v>8928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>12348</v>
+      </c>
+      <c r="C5">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>12352</v>
+      </c>
+      <c r="C6">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>12272</v>
+      </c>
+      <c r="C7">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>12260</v>
+      </c>
+      <c r="C8">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>12268</v>
+      </c>
+      <c r="C9">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>12304</v>
+      </c>
+      <c r="C10">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>12256</v>
+      </c>
+      <c r="C11">
+        <v>9036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>12304</v>
+      </c>
+      <c r="C12">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>12300</v>
+      </c>
+      <c r="C13">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>12336</v>
+      </c>
+      <c r="C14">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>12340</v>
+      </c>
+      <c r="C15">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>12304</v>
+      </c>
+      <c r="C16">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>12372</v>
+      </c>
+      <c r="C17">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>12304</v>
+      </c>
+      <c r="C18">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>12268</v>
+      </c>
+      <c r="C19">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>12240</v>
+      </c>
+      <c r="C20">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>12308</v>
+      </c>
+      <c r="C21">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>12308</v>
+      </c>
+      <c r="C22">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>12364</v>
+      </c>
+      <c r="C23">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>12256</v>
+      </c>
+      <c r="C24">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>12268</v>
+      </c>
+      <c r="C25">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>12296</v>
+      </c>
+      <c r="C26">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>12244</v>
+      </c>
+      <c r="C27">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>12360</v>
+      </c>
+      <c r="C28">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>12328</v>
+      </c>
+      <c r="C29">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>12256</v>
+      </c>
+      <c r="C30">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>12304</v>
+      </c>
+      <c r="C31">
+        <v>8964</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>12376</v>
+      </c>
+      <c r="C32">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>12256</v>
+      </c>
+      <c r="C33">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>12352</v>
+      </c>
+      <c r="C34">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>12304</v>
+      </c>
+      <c r="C35">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>12264</v>
+      </c>
+      <c r="C36">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>12300</v>
+      </c>
+      <c r="C37">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>12296</v>
+      </c>
+      <c r="C38">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>12268</v>
+      </c>
+      <c r="C39">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>12372</v>
+      </c>
+      <c r="C40">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>12268</v>
+      </c>
+      <c r="C41">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>12352</v>
+      </c>
+      <c r="C42">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>12336</v>
+      </c>
+      <c r="C43">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>12244</v>
+      </c>
+      <c r="C44">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>12336</v>
+      </c>
+      <c r="C45">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>12340</v>
+      </c>
+      <c r="C46">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>12368</v>
+      </c>
+      <c r="C47">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>12296</v>
+      </c>
+      <c r="C48">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>12352</v>
+      </c>
+      <c r="C49">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>12348</v>
+      </c>
+      <c r="C50">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>12268</v>
+      </c>
+      <c r="C51">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B2:B51)</f>
+        <v>12305.12</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE(C2:C51)</f>
+        <v>8979.84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f>B52-C52</f>
+        <v>3325.2800000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SWMH_exam.xlsx
+++ b/SWMH_exam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yamakawa00\src\github.com\ryuchan00\Minlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684725A4-2DF4-476F-9498-315889166E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16800E42-DF8F-46BA-A252-0E656E05E923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete_valのための探索が何回まで行えばよいか" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <sheet name="CountMinSketchのサイズ削減によるメモリ測定" sheetId="14" r:id="rId11"/>
     <sheet name="CountMinSkethのc1の数値によるメモリ使用量の変化" sheetId="15" r:id="rId12"/>
     <sheet name="ActiveIndexによる割り当て表の削減のサイズ" sheetId="17" r:id="rId13"/>
+    <sheet name="スライディングウィンドウだけの処理の空間計算量" sheetId="18" r:id="rId14"/>
+    <sheet name="空間計算量の比較" sheetId="21" r:id="rId15"/>
+    <sheet name="CMSの正確性" sheetId="19" r:id="rId16"/>
+    <sheet name="速度計測" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
   <si>
     <t>Active Indexなし</t>
     <phoneticPr fontId="18"/>
@@ -300,9 +304,6 @@
     <t>c1=2</t>
   </si>
   <si>
-    <t>c2=30</t>
-  </si>
-  <si>
     <t>c2=20</t>
   </si>
   <si>
@@ -331,6 +332,10 @@
   </si>
   <si>
     <t>T=10100</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c2=28</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -422,12 +427,292 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>笶ｯ ./SWMH_exam.sh</t>
+  </si>
+  <si>
+    <t>実行ファイル引数にウインドウサイズ1000</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スライディングウィンドウサイズ1000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スライディングウィンドウだけの処理の空間計算量</t>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>クウカンケイサンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>    /usr/bin/time -f %M ./SWMH_basic_memory zipf_database.txt 1000</t>
+  </si>
+  <si>
+    <t>空間計算量(KB)</t>
+    <rPh sb="0" eb="5">
+      <t>クウカンケイサンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=32</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=64</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=128</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>要素の種類100</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>厳密解</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンミツカイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>近似解</t>
+    <rPh sb="0" eb="3">
+      <t>キンジカイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ハッシュ関数100</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>類似度の平均</t>
+    <rPh sb="0" eb="3">
+      <t>ルイジド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>文字列は100</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c=6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c=3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1=4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SWMH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SWMH_array2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SWMH_active_index</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>平均(sec)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SWMH_count_min_sketch</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>既存研究</t>
+    <rPh sb="0" eb="4">
+      <t>キゾンケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Minlistのスキャン回数</t>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Active Indexの導入</t>
+    <rPh sb="13" eb="15">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Count-Min Sketchの導入</t>
+    <rPh sb="17" eb="19">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>zipf_database_1000.txt</t>
+  </si>
+  <si>
+    <t>Minhash_1000.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      10       10 68888900 Minhash_1000.txt</t>
+  </si>
+  <si>
+    <t>既存研究に近いデータセットを利用
+スライディング100
+要素の種類数100</t>
+    <rPh sb="0" eb="4">
+      <t>キゾンケンキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>シュルイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>誤差の絶対値の平均</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼッタイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>厳密解との差の絶対値</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンミツカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゼッタイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Minlistのスキャン回数指定</t>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実行時間の平均(sec)</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AIAT</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PWCM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スライディングウィンドウの処理のみ</t>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>空間計算量の平均(KB)</t>
+    <rPh sb="0" eb="5">
+      <t>クウカンケイサンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +877,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1034,17 +1327,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33640,7 +33951,7 @@
   <sheetData>
     <row r="1" spans="1:1103">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -46916,7 +47227,7 @@
     </row>
     <row r="11" spans="1:1103">
       <c r="AO11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1103">
@@ -46926,7 +47237,7 @@
     </row>
     <row r="13" spans="1:1103">
       <c r="AO13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1103">
@@ -47455,8 +47766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD40F9A-6CA3-467A-AA80-7FCA8EC46012}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -47531,7 +47842,7 @@
         <v>62372</v>
       </c>
       <c r="C6">
-        <v>61364</v>
+        <v>60292</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -47542,29 +47853,29 @@
         <v>64300</v>
       </c>
       <c r="C7">
-        <v>61576</v>
+        <v>60284</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>63036</v>
       </c>
       <c r="C8">
-        <v>62716</v>
+        <v>60356</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>61736</v>
       </c>
       <c r="C9">
-        <v>62192</v>
+        <v>60352</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -47572,7 +47883,7 @@
         <v>61908</v>
       </c>
       <c r="C10">
-        <v>61932</v>
+        <v>60332</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -47580,7 +47891,7 @@
         <v>63156</v>
       </c>
       <c r="C11">
-        <v>62180</v>
+        <v>60832</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -47588,7 +47899,7 @@
         <v>62008</v>
       </c>
       <c r="C12">
-        <v>60492</v>
+        <v>60448</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -47596,7 +47907,7 @@
         <v>61876</v>
       </c>
       <c r="C13">
-        <v>60444</v>
+        <v>61016</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -47604,7 +47915,7 @@
         <v>62336</v>
       </c>
       <c r="C14">
-        <v>61340</v>
+        <v>60796</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -47612,7 +47923,7 @@
         <v>63040</v>
       </c>
       <c r="C15">
-        <v>60356</v>
+        <v>60472</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -47620,7 +47931,7 @@
         <v>62504</v>
       </c>
       <c r="C16">
-        <v>61416</v>
+        <v>61412</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -47628,7 +47939,7 @@
         <v>62696</v>
       </c>
       <c r="C17">
-        <v>60424</v>
+        <v>60360</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -47636,7 +47947,7 @@
         <v>61784</v>
       </c>
       <c r="C18">
-        <v>61044</v>
+        <v>60256</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -47644,7 +47955,7 @@
         <v>61892</v>
       </c>
       <c r="C19">
-        <v>60816</v>
+        <v>60348</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -47652,7 +47963,7 @@
         <v>61864</v>
       </c>
       <c r="C20">
-        <v>60284</v>
+        <v>62580</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -47660,7 +47971,7 @@
         <v>62584</v>
       </c>
       <c r="C21">
-        <v>62388</v>
+        <v>60848</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -47668,7 +47979,7 @@
         <v>62412</v>
       </c>
       <c r="C22">
-        <v>60652</v>
+        <v>60288</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -47676,7 +47987,7 @@
         <v>61736</v>
       </c>
       <c r="C23">
-        <v>62080</v>
+        <v>60376</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -47684,7 +47995,7 @@
         <v>62088</v>
       </c>
       <c r="C24">
-        <v>60440</v>
+        <v>60284</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -47692,7 +48003,7 @@
         <v>61860</v>
       </c>
       <c r="C25">
-        <v>60324</v>
+        <v>60220</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -47700,7 +48011,7 @@
         <v>61824</v>
       </c>
       <c r="C26">
-        <v>60744</v>
+        <v>60640</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -47708,7 +48019,7 @@
         <v>61844</v>
       </c>
       <c r="C27">
-        <v>60708</v>
+        <v>60212</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -47716,7 +48027,7 @@
         <v>62560</v>
       </c>
       <c r="C28">
-        <v>60984</v>
+        <v>63004</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -47724,7 +48035,7 @@
         <v>62444</v>
       </c>
       <c r="C29">
-        <v>60864</v>
+        <v>60352</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -47732,7 +48043,7 @@
         <v>62168</v>
       </c>
       <c r="C30">
-        <v>61988</v>
+        <v>61568</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -47740,7 +48051,7 @@
         <v>62056</v>
       </c>
       <c r="C31">
-        <v>61356</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -47748,7 +48059,7 @@
         <v>63584</v>
       </c>
       <c r="C32">
-        <v>60440</v>
+        <v>62388</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -47764,7 +48075,7 @@
         <v>61960</v>
       </c>
       <c r="C34">
-        <v>60396</v>
+        <v>60684</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -47772,7 +48083,7 @@
         <v>61872</v>
       </c>
       <c r="C35">
-        <v>61544</v>
+        <v>60648</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -47780,7 +48091,7 @@
         <v>63776</v>
       </c>
       <c r="C36">
-        <v>61568</v>
+        <v>62944</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -47788,7 +48099,7 @@
         <v>62608</v>
       </c>
       <c r="C37">
-        <v>60324</v>
+        <v>61492</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -47796,7 +48107,7 @@
         <v>63020</v>
       </c>
       <c r="C38">
-        <v>61268</v>
+        <v>61844</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -47804,7 +48115,7 @@
         <v>62012</v>
       </c>
       <c r="C39">
-        <v>61552</v>
+        <v>61704</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -47812,7 +48123,7 @@
         <v>61992</v>
       </c>
       <c r="C40">
-        <v>61156</v>
+        <v>60228</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -47820,7 +48131,7 @@
         <v>62212</v>
       </c>
       <c r="C41">
-        <v>60352</v>
+        <v>60336</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -47828,7 +48139,7 @@
         <v>62524</v>
       </c>
       <c r="C42">
-        <v>60556</v>
+        <v>60756</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -47836,7 +48147,7 @@
         <v>62248</v>
       </c>
       <c r="C43">
-        <v>61100</v>
+        <v>63520</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -47844,7 +48155,7 @@
         <v>61904</v>
       </c>
       <c r="C44">
-        <v>60884</v>
+        <v>60844</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -47852,7 +48163,7 @@
         <v>62252</v>
       </c>
       <c r="C45">
-        <v>62032</v>
+        <v>62812</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -47860,7 +48171,7 @@
         <v>63732</v>
       </c>
       <c r="C46">
-        <v>61196</v>
+        <v>61460</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -47868,7 +48179,7 @@
         <v>62152</v>
       </c>
       <c r="C47">
-        <v>60556</v>
+        <v>60528</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -47876,7 +48187,7 @@
         <v>64772</v>
       </c>
       <c r="C48">
-        <v>60472</v>
+        <v>60292</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -47892,7 +48203,7 @@
         <v>63104</v>
       </c>
       <c r="C50">
-        <v>61880</v>
+        <v>60896</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -47900,7 +48211,7 @@
         <v>62012</v>
       </c>
       <c r="C51">
-        <v>62328</v>
+        <v>60544</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -47908,7 +48219,7 @@
         <v>62004</v>
       </c>
       <c r="C52">
-        <v>60420</v>
+        <v>61020</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -47916,7 +48227,7 @@
         <v>62040</v>
       </c>
       <c r="C53">
-        <v>61108</v>
+        <v>61112</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -47924,7 +48235,7 @@
         <v>62924</v>
       </c>
       <c r="C54">
-        <v>60376</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -47932,7 +48243,7 @@
         <v>63040</v>
       </c>
       <c r="C55">
-        <v>61812</v>
+        <v>61632</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -47945,14 +48256,14 @@
       </c>
       <c r="C56">
         <f>AVERAGE(C6:C55)</f>
-        <v>61123.360000000001</v>
+        <v>60967.12</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56">
         <f>B56-C56</f>
-        <v>1385.2799999999988</v>
+        <v>1541.5199999999968</v>
       </c>
     </row>
   </sheetData>
@@ -48013,7 +48324,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>60380</v>
@@ -48317,8 +48628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00EE51C-B928-40B9-B7D0-411E3463AEAD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -48342,10 +48653,10 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -48353,10 +48664,10 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>7.468</v>
       </c>
     </row>
@@ -48364,21 +48675,21 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>7.383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>7.3979999999999997</v>
       </c>
     </row>
@@ -48386,10 +48697,10 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>7.4710000000000001</v>
       </c>
     </row>
@@ -48397,61 +48708,61 @@
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>7.44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>7.4790000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>7.5460000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>7.6589999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>7.3920000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>7.5419999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f>AVERAGE(C4:C13)</f>
         <v>7.4777999999999993</v>
       </c>
@@ -48460,6 +48771,5190 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14897AEF-7150-45CD-B235-CC5DBFDA0016}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="67.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>101000</v>
+      </c>
+      <c r="C4">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE(C2:C51)</f>
+        <v>4466.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1EC294-8AFB-4B78-83EB-5342470B04D8}">
+  <dimension ref="C3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="9">
+        <f>スライディングウィンドウだけの処理の空間計算量!C52</f>
+        <v>4466.16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9">
+        <f>'ヒストグラムのサイズ削減によるメモリ測定4回目 (2)'!B52</f>
+        <v>85965.84</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9">
+        <f>'ヒストグラムのサイズ削減によるメモリ測定4回目 (2)'!C52</f>
+        <v>85918.080000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9">
+        <f>'ActiveIndexの割り当て表削減のメモリ測定 (2)'!C52</f>
+        <v>62456.959999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="9">
+        <f>CountMinSketchのサイズ削減によるメモリ測定!C56</f>
+        <v>60967.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84244BF2-CEA0-4C41-8438-444F6807EA3C}">
+  <dimension ref="A1:W54"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" hidden="1" customWidth="1"/>
+    <col min="4" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="11.5" customWidth="1"/>
+    <col min="25" max="25" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="O4" s="3">
+        <f>ABS($B4-D4)</f>
+        <v>2.8570999999999958E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f>ABS($B4-E4)</f>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:W19" si="0">ABS($B4-F4)</f>
+        <v>6.8570999999999993E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8570999999999993E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8570999999999975E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>0.47058800000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O53" si="1">ABS($B5-D5)</f>
+        <v>3.9412000000000003E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f>ABS($B5-E5)</f>
+        <v>5.941200000000002E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9411999999999945E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11941199999999996</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12941199999999997</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12941199999999997</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12941199999999997</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12941199999999997</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12941199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>0.47058800000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9411999999999994E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P5:P54" si="2">ABS($B6-E6)</f>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>ABS($B6-F6)</f>
+        <v>3.9412000000000003E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9412000000000011E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11857099999999998</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>9.8570999999999964E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8570999999999964E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <f>ABS($B7-G7)</f>
+        <v>9.8570999999999964E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8570999999999955E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8570999999999984E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8451000000000002E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8451000000000022E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="S8" s="3">
+        <f>ABS($B8-H8)</f>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8450999999999984E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8451000000000013E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <f>ABS($B9-I9)</f>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O10" s="3">
+        <f>ABS($B10-D10)</f>
+        <v>7.8450999999999993E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8451000000000031E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <f>ABS($B10-J10)</f>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>0.43884899999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O11" s="3">
+        <f>ABS($B11-D11)</f>
+        <v>1.8849000000000005E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1510000000000131E-3</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1150999999999993E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1150999999999984E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1150999999999984E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1150999999999984E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1150999999999984E-2</v>
+      </c>
+      <c r="V11" s="3">
+        <f>ABS($B11-K11)</f>
+        <v>3.1150999999999984E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1150999999999984E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8571000000000002E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f>ABS($B12-E12)</f>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8570999999999966E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8571000000000004E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5709999999999953E-3</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4290000000000136E-3</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4290000000000136E-3</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4290000000000136E-3</v>
+      </c>
+      <c r="W12" s="3">
+        <f>ABS($B12-L12)</f>
+        <v>1.4290000000000136E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>ABS($B13-F13)</f>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1110999999999989E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1110999999999989E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1110999999999989E-2</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1110999999999989E-2</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1110999999999989E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8450999999999993E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8451000000000031E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="R14" s="3">
+        <f>ABS($B14-G14)</f>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1548999999999976E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>0.492537</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>5.2537E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2536999999999991E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.253700000000002E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7463000000000015E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <f>ABS($B15-H15)</f>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>0.48148099999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1481000000000017E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1481000000000008E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1481000000000008E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1481000000000008E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1480999999999981E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1480999999999981E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1480999999999972E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1480999999999972E-2</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1480999999999972E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" hidden="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8889000000000007E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>4.888899999999996E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8889000000000007E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8889000000000007E-2</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" hidden="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8450999999999993E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1548999999999994E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1548999999999994E-2</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1548999999999985E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" hidden="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>0.492537</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2537000000000029E-2</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2536999999999983E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2537000000000029E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4629999999999974E-3</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7463000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" hidden="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8570999999999955E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>7.8571000000000002E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q20:Q54" si="3">ABS($B20-F20)</f>
+        <v>9.8570999999999964E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" ref="R20:R54" si="4">ABS($B20-G20)</f>
+        <v>6.8570999999999993E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" ref="S20:S54" si="5">ABS($B20-H20)</f>
+        <v>5.8570999999999984E-2</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" ref="T20:T54" si="6">ABS($B20-I20)</f>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" ref="U20:U54" si="7">ABS($B20-J20)</f>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ref="V20:V54" si="8">ABS($B20-K20)</f>
+        <v>4.8570999999999975E-2</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ref="W20:W54" si="9">ABS($B20-L20)</f>
+        <v>4.8570999999999975E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" hidden="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>0.369863</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9863000000000008E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9863000000000008E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>5.9863E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="4"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="5"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="6"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="7"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9862999999999982E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" hidden="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>0.41843999999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1560000000000041E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1560000000000041E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1560000000000012E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="4"/>
+        <v>6.1560000000000004E-2</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12156000000000006</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12156000000000006</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12156000000000006</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="8"/>
+        <v>0.12156000000000006</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="9"/>
+        <v>0.12156000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" hidden="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>0.44927499999999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9274999999999984E-2</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9274999999999984E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9274999999999975E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="4"/>
+        <v>6.9274999999999975E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9274999999999975E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.9274999999999958E-2</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="7"/>
+        <v>4.9274999999999958E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="8"/>
+        <v>4.9274999999999958E-2</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="9"/>
+        <v>4.9274999999999958E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" hidden="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>0.48148099999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1480999999999979E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1481000000000017E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>6.1481000000000008E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1480999999999981E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4810000000000101E-3</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4810000000000101E-3</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4810000000000101E-3</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4810000000000101E-3</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4810000000000101E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" hidden="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10857099999999997</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10857099999999997</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8570999999999955E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8571000000000004E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8571000000000004E-2</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="6"/>
+        <v>8.5709999999999953E-3</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="7"/>
+        <v>8.5709999999999953E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="8"/>
+        <v>8.5709999999999953E-3</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="9"/>
+        <v>8.5709999999999953E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" hidden="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>0.13592199999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4078000000000025E-2</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4078000000000006E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4078000000000006E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="4"/>
+        <v>5.4078000000000015E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4078000000000024E-2</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4078000000000024E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="7"/>
+        <v>6.4078000000000024E-2</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="8"/>
+        <v>6.4078000000000024E-2</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="9"/>
+        <v>6.4078000000000024E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" hidden="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>4.888899999999996E-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="5"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="6"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="8"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="9"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" hidden="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>0.44927499999999998</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.072500000000004E-2</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.072500000000002E-2</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="3"/>
+        <v>6.0725000000000029E-2</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="5"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="6"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="7"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0725000000000011E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" hidden="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>0.39860099999999998</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8600999999999959E-2</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8600999999999988E-2</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1399000000000001E-2</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3990000000000391E-3</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1398999999999992E-2</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1399000000000001E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1399000000000001E-2</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1399000000000001E-2</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1399000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8450999999999984E-2</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8451000000000013E-2</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1549000000000003E-2</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="6"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="7"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="8"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="9"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" hidden="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>0.41843999999999998</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8439999999999965E-2</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8439999999999956E-2</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="3"/>
+        <v>5.8439999999999992E-2</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="4"/>
+        <v>6.8440000000000001E-2</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8440000000000001E-2</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="6"/>
+        <v>4.8439999999999983E-2</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="7"/>
+        <v>4.8439999999999983E-2</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="8"/>
+        <v>4.8439999999999983E-2</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8439999999999983E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" hidden="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>0.43884899999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1151000000000022E-2</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1150999999999993E-2</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="6"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="7"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" si="8"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" si="9"/>
+        <v>5.1151000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" hidden="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>0.47058800000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0587999999999984E-2</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0588000000000013E-2</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0588000000000013E-2</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="4"/>
+        <v>5.8800000000003294E-4</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8800000000003294E-4</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9411999999999985E-2</v>
+      </c>
+      <c r="U33" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9411999999999985E-2</v>
+      </c>
+      <c r="V33" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9411999999999985E-2</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="9"/>
+        <v>1.9411999999999985E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" hidden="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>0.41843999999999998</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4400000000000031E-3</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1560000000000015E-2</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1560000000000024E-2</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1560000000000024E-2</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="8"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>0.51515200000000005</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5152000000000061E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="2"/>
+        <v>9.515200000000007E-2</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12515200000000004</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="4"/>
+        <v>8.5152000000000061E-2</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="6"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="7"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="8"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="9"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>0.39860099999999998</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8600999999999959E-2</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8601000000000005E-2</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8601000000000005E-2</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8600999999999988E-2</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8600999999999979E-2</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8600999999999979E-2</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8600999999999979E-2</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8600999999999979E-2</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8600999999999979E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>0.43884899999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1510000000000131E-3</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8489999999999958E-3</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1151000000000031E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8889000000000007E-2</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8888999999999989E-2</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1110999999999991E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="9"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1549000000000003E-2</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1549000000000011E-2</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="4"/>
+        <v>7.1548999999999974E-2</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="5"/>
+        <v>7.1548999999999974E-2</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="6"/>
+        <v>8.1548999999999983E-2</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="7"/>
+        <v>8.1548999999999983E-2</v>
+      </c>
+      <c r="V39" s="3">
+        <f t="shared" si="8"/>
+        <v>8.1548999999999983E-2</v>
+      </c>
+      <c r="W39" s="3">
+        <f t="shared" si="9"/>
+        <v>8.1548999999999983E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" hidden="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8888999999999998E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1111E-2</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1111E-2</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1111E-2</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="8"/>
+        <v>3.1111E-2</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1111E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>0.44927499999999998</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9274999999999967E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9274999999999975E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9274999999999975E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="4"/>
+        <v>5.9274999999999967E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9274999999999995E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="6"/>
+        <v>9.2749999999999777E-3</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" si="7"/>
+        <v>9.2749999999999777E-3</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" si="8"/>
+        <v>9.2749999999999777E-3</v>
+      </c>
+      <c r="W41" s="3">
+        <f t="shared" si="9"/>
+        <v>9.2749999999999777E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" hidden="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.148451</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8451000000000031E-2</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8451000000000022E-2</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="4"/>
+        <v>8.4509999999999863E-3</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>0.51515200000000005</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5152000000000052E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5152000000000072E-2</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8479999999999634E-3</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4847999999999972E-2</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="W43" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4847999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10888899999999996</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1110999999999991E-2</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" hidden="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>0.41843999999999998</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1560000000000015E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1560000000000032E-2</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1560000000000041E-2</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="4"/>
+        <v>8.1560000000000021E-2</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1560000000000021E-2</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="6"/>
+        <v>9.156000000000003E-2</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="7"/>
+        <v>9.156000000000003E-2</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="8"/>
+        <v>9.156000000000003E-2</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="9"/>
+        <v>9.156000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" hidden="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8888999999999978E-2</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8889000000000007E-2</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" hidden="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>0.51515200000000005</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8479999999999634E-3</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5152000000000063E-2</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1520000000000454E-3</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1520000000000454E-3</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8479999999999634E-3</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4847999999999972E-2</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4847999999999972E-2</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4847999999999972E-2</v>
+      </c>
+      <c r="W47" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4847999999999972E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" hidden="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>0.45985399999999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14985399999999999</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9853999999999998E-2</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9853999999999992E-2</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9853999999999983E-2</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9853999999999983E-2</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="6"/>
+        <v>4.0146000000000015E-2</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="7"/>
+        <v>4.0146000000000015E-2</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0146000000000015E-2</v>
+      </c>
+      <c r="W48" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0146000000000015E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" hidden="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>0.43884899999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="1"/>
+        <v>9.8848999999999965E-2</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="2"/>
+        <v>7.8849000000000002E-2</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" si="3"/>
+        <v>5.8848999999999985E-2</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8849000000000014E-2</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8849000000000014E-2</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8849000000000005E-2</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8849000000000005E-2</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8849000000000005E-2</v>
+      </c>
+      <c r="W49" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8849000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" hidden="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8888999999999987E-2</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8888999999999969E-2</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8889999999999803E-3</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1110000000000286E-3</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1111000000000038E-2</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1111E-2</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+      <c r="W50" s="3">
+        <f t="shared" si="9"/>
+        <v>4.1111000000000009E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" hidden="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3333000000000002E-2</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3332999999999964E-2</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3329999999999749E-3</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3329999999999749E-3</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3329999999999749E-3</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3329999999999749E-3</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="7"/>
+        <v>6.667000000000034E-3</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="8"/>
+        <v>6.667000000000034E-3</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="9"/>
+        <v>6.667000000000034E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" hidden="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>0.40845100000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8450999999999995E-2</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8450999999999995E-2</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8451000000000004E-2</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+      <c r="W52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5489999999999671E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>0.37930999999999998</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="O53" s="3">
+        <f>ABS($B53-D53)</f>
+        <v>6.9000000000002393E-4</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9000000000002393E-4</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0690000000000042E-2</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="4"/>
+        <v>5.0690000000000013E-2</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0690000000000013E-2</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="6"/>
+        <v>7.0690000000000031E-2</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="7"/>
+        <v>7.0690000000000031E-2</v>
+      </c>
+      <c r="V53" s="3">
+        <f t="shared" si="8"/>
+        <v>7.0690000000000031E-2</v>
+      </c>
+      <c r="W53" s="3">
+        <f t="shared" si="9"/>
+        <v>7.0690000000000031E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="3">
+        <f>AVERAGE(B4:B53)</f>
+        <v>0.42175493999999991</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" ref="C54:L54" si="10">AVERAGE(C4:C53)</f>
+        <v>0.43720000000000003</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.37299999999999983</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.39219999999999983</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42040000000000005</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43019999999999992</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43660000000000004</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43720000000000003</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43720000000000003</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43720000000000003</v>
+      </c>
+      <c r="O54" s="3">
+        <f>AVERAGE(O4:O53)</f>
+        <v>5.6138419999999981E-2</v>
+      </c>
+      <c r="P54" s="3">
+        <f>AVERAGE(P4:P53)</f>
+        <v>4.5419700000000021E-2</v>
+      </c>
+      <c r="Q54" s="3">
+        <f t="shared" ref="Q54" si="11">AVERAGE(Q4:Q53)</f>
+        <v>4.0266460000000011E-2</v>
+      </c>
+      <c r="R54" s="3">
+        <f t="shared" ref="R54" si="12">AVERAGE(R4:R53)</f>
+        <v>3.5258780000000031E-2</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" ref="S54" si="13">AVERAGE(S4:S53)</f>
+        <v>3.6532180000000004E-2</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" ref="T54" si="14">AVERAGE(T4:T53)</f>
+        <v>3.583362000000001E-2</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" ref="U54" si="15">AVERAGE(U4:U53)</f>
+        <v>3.5900299999999996E-2</v>
+      </c>
+      <c r="V54" s="3">
+        <f t="shared" ref="V54" si="16">AVERAGE(V4:V53)</f>
+        <v>3.5900299999999996E-2</v>
+      </c>
+      <c r="W54" s="3">
+        <f t="shared" ref="W54" si="17">AVERAGE(W4:W53)</f>
+        <v>3.5900299999999996E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628D132-5A5E-4273-B270-88A0E1D47381}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="33.75" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="C2">
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="56.25">
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" hidden="1">
+      <c r="B7">
+        <v>5.3797999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.11038000000000001</v>
+      </c>
+      <c r="D7">
+        <v>6.8404999999999994E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.5007999999999996E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.00654</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" hidden="1">
+      <c r="B8">
+        <v>5.1832999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="D8">
+        <v>6.8884000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.2274999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.2394400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" hidden="1">
+      <c r="B9">
+        <v>5.2077999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.106713</v>
+      </c>
+      <c r="D9">
+        <v>7.0213999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.3283000000000006E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.0119400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" hidden="1">
+      <c r="B10">
+        <v>5.2836000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.11122700000000001</v>
+      </c>
+      <c r="D10">
+        <v>7.0172999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.0112699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" hidden="1">
+      <c r="B11">
+        <v>5.3563E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.111098</v>
+      </c>
+      <c r="D11">
+        <v>7.3403999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>6.3198000000000004E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.0100899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" hidden="1">
+      <c r="B12">
+        <v>5.1774000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.114149</v>
+      </c>
+      <c r="D12">
+        <v>7.2036000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.4415E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.99036199999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" hidden="1">
+      <c r="B13">
+        <v>5.2541999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.109485</v>
+      </c>
+      <c r="D13">
+        <v>7.6589000000000004E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.1906999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.0091300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" hidden="1">
+      <c r="B14">
+        <v>5.3457999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.109166</v>
+      </c>
+      <c r="D14">
+        <v>6.9462999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.5701999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.01973</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" hidden="1">
+      <c r="B15">
+        <v>5.2523E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.10517799999999999</v>
+      </c>
+      <c r="D15">
+        <v>6.8609000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.3243999999999995E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.0146299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" hidden="1">
+      <c r="B16">
+        <v>5.3511999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.11436399999999999</v>
+      </c>
+      <c r="D16">
+        <v>7.0821999999999996E-2</v>
+      </c>
+      <c r="E16">
+        <v>6.2128000000000003E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.0137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1">
+      <c r="B17">
+        <v>5.3201999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.10670200000000001</v>
+      </c>
+      <c r="D17">
+        <v>7.2969999999999993E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.2414999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.01712</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1">
+      <c r="B18">
+        <v>5.3261999999999997E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.105547</v>
+      </c>
+      <c r="D18">
+        <v>7.0696999999999996E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.2497999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" hidden="1">
+      <c r="B19">
+        <v>5.4519999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.111932</v>
+      </c>
+      <c r="D19">
+        <v>6.8687999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>6.2981999999999996E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.98902199999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" hidden="1">
+      <c r="B20">
+        <v>5.2127E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.10970299999999999</v>
+      </c>
+      <c r="D20">
+        <v>7.1350999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.2889E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.0252300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21">
+        <v>5.1281E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.115939</v>
+      </c>
+      <c r="D21">
+        <v>7.1138999999999994E-2</v>
+      </c>
+      <c r="E21">
+        <v>6.4173999999999995E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.08012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22">
+        <v>5.144E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.11122600000000001</v>
+      </c>
+      <c r="D22">
+        <v>7.6391000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>6.6401000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23">
+        <v>5.287E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.109401</v>
+      </c>
+      <c r="D23">
+        <v>6.9549E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.3886999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.01284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24">
+        <v>5.2102000000000002E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.13588500000000001</v>
+      </c>
+      <c r="D24">
+        <v>8.1326999999999997E-2</v>
+      </c>
+      <c r="E24">
+        <v>6.7934999999999995E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25">
+        <v>5.5037999999999997E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.114664</v>
+      </c>
+      <c r="D25">
+        <v>7.4054999999999996E-2</v>
+      </c>
+      <c r="E25">
+        <v>6.3669000000000003E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.01187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26">
+        <v>5.2153999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.114008</v>
+      </c>
+      <c r="D26">
+        <v>6.9214999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>6.3553999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.0163899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27">
+        <v>5.2439E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.10579</v>
+      </c>
+      <c r="D27">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>6.2755000000000005E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.99865999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28">
+        <v>5.4029000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.10635</v>
+      </c>
+      <c r="D28">
+        <v>7.0349999999999996E-2</v>
+      </c>
+      <c r="E28">
+        <v>6.1786000000000001E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.01433</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29">
+        <v>5.6827999999999997E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.10878599999999999</v>
+      </c>
+      <c r="D29">
+        <v>7.1485000000000007E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.6839999999999997E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.0158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30">
+        <v>5.2991999999999997E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.10857600000000001</v>
+      </c>
+      <c r="D30">
+        <v>7.6442999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.2140000000000001E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.00447</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31">
+        <v>5.2622000000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.106644</v>
+      </c>
+      <c r="D31">
+        <v>7.5020000000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.5045000000000006E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.99049299999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32">
+        <v>5.2248999999999997E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.126224</v>
+      </c>
+      <c r="D32">
+        <v>7.7481999999999995E-2</v>
+      </c>
+      <c r="E32">
+        <v>6.1540999999999998E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.02823</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33">
+        <v>5.2089999999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.111813</v>
+      </c>
+      <c r="D33">
+        <v>8.0743999999999996E-2</v>
+      </c>
+      <c r="E33">
+        <v>6.2958E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.99893900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34">
+        <v>5.459E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.11088199999999999</v>
+      </c>
+      <c r="D34">
+        <v>6.9435999999999998E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.1004999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.99649799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35">
+        <v>5.228E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.11201800000000001</v>
+      </c>
+      <c r="D35">
+        <v>6.9005999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>6.2953999999999996E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.00187</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36">
+        <v>5.2930999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.110958</v>
+      </c>
+      <c r="D36">
+        <v>6.8390999999999993E-2</v>
+      </c>
+      <c r="E36">
+        <v>6.4172000000000007E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.0109900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37">
+        <v>5.3117999999999999E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.109073</v>
+      </c>
+      <c r="D37">
+        <v>6.9433999999999996E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.4809000000000005E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.01254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38">
+        <v>5.2317000000000002E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.107656</v>
+      </c>
+      <c r="D38">
+        <v>7.1112999999999996E-2</v>
+      </c>
+      <c r="E38">
+        <v>7.5823000000000002E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.01247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39">
+        <v>5.1785999999999999E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.11108999999999999</v>
+      </c>
+      <c r="D39">
+        <v>6.8928000000000003E-2</v>
+      </c>
+      <c r="E39">
+        <v>6.1906999999999997E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.0220400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40">
+        <v>5.2602999999999997E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.113862</v>
+      </c>
+      <c r="D40">
+        <v>6.9771E-2</v>
+      </c>
+      <c r="E40">
+        <v>6.3194E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41">
+        <v>5.2179999999999997E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.11975</v>
+      </c>
+      <c r="D41">
+        <v>6.9488999999999995E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.9917999999999994E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.0056</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42">
+        <v>5.1886000000000002E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.106572</v>
+      </c>
+      <c r="D42">
+        <v>7.2670999999999999E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.3149999999999998E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43">
+        <v>5.3348E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.10638400000000001</v>
+      </c>
+      <c r="D43">
+        <v>6.9846000000000005E-2</v>
+      </c>
+      <c r="E43">
+        <v>6.2844999999999998E-2</v>
+      </c>
+      <c r="F43">
+        <v>1.0185999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44">
+        <v>5.2930999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.106054</v>
+      </c>
+      <c r="D44">
+        <v>7.0224999999999996E-2</v>
+      </c>
+      <c r="E44">
+        <v>6.3510999999999998E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.994842</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45">
+        <v>5.5640000000000002E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.10817300000000001</v>
+      </c>
+      <c r="D45">
+        <v>6.8787000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>6.4892000000000005E-2</v>
+      </c>
+      <c r="F45">
+        <v>1.0062199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46">
+        <v>5.3027999999999999E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.10653899999999999</v>
+      </c>
+      <c r="D46">
+        <v>6.6829E-2</v>
+      </c>
+      <c r="E46">
+        <v>6.2609999999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>1.0122100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47">
+        <v>5.3643999999999997E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.102729</v>
+      </c>
+      <c r="D47">
+        <v>6.7532999999999996E-2</v>
+      </c>
+      <c r="E47">
+        <v>7.0456000000000005E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.0383599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48">
+        <v>5.3280000000000001E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.10419399999999999</v>
+      </c>
+      <c r="D48">
+        <v>6.7353999999999997E-2</v>
+      </c>
+      <c r="E48">
+        <v>5.9750999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <v>1.01159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
+      <c r="B49">
+        <v>7.1049000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.107747</v>
+      </c>
+      <c r="D49">
+        <v>6.9467000000000001E-2</v>
+      </c>
+      <c r="E49">
+        <v>6.2844999999999998E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.0155400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
+      <c r="B50">
+        <v>5.4154000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.14458699999999999</v>
+      </c>
+      <c r="D50">
+        <v>6.8917000000000006E-2</v>
+      </c>
+      <c r="E50">
+        <v>6.4014000000000001E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.01139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
+      <c r="B51">
+        <v>5.2900999999999997E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.10981200000000001</v>
+      </c>
+      <c r="D51">
+        <v>7.0385000000000003E-2</v>
+      </c>
+      <c r="E51">
+        <v>6.3363000000000003E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.99848700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
+      <c r="B52">
+        <v>6.0332999999999998E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.11128200000000001</v>
+      </c>
+      <c r="D52">
+        <v>7.2826000000000002E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.4597000000000002E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.01814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
+      <c r="B53">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.111854</v>
+      </c>
+      <c r="D53">
+        <v>7.3124999999999996E-2</v>
+      </c>
+      <c r="E53">
+        <v>6.2561000000000005E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.00926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
+      <c r="B54">
+        <v>5.3926000000000002E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.107893</v>
+      </c>
+      <c r="D54">
+        <v>7.5470999999999996E-2</v>
+      </c>
+      <c r="E54">
+        <v>6.5705E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.97960499999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="B55">
+        <v>5.3553000000000003E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.106919</v>
+      </c>
+      <c r="D55">
+        <v>7.1577000000000002E-2</v>
+      </c>
+      <c r="E55">
+        <v>6.0797999999999998E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.99459399999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
+      <c r="B56">
+        <v>5.4466000000000001E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.114401</v>
+      </c>
+      <c r="D56">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="E56">
+        <v>6.2276999999999999E-2</v>
+      </c>
+      <c r="F56">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B7:B56)</f>
+        <v>5.3598119999999992E-2</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(C7:C56)</f>
+        <v>0.11121157999999999</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:F57" si="0">AVERAGE(D7:D56)</f>
+        <v>7.1487719999999991E-2</v>
+      </c>
+      <c r="E57">
+        <f>AVERAGE(E7:E56)</f>
+        <v>6.396905999999998E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.0155058399999999</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="H58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="8">
+        <f>C57</f>
+        <v>0.11121157999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="H59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="8">
+        <f>D57</f>
+        <v>7.1487719999999991E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="H60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="8">
+        <f>E57</f>
+        <v>6.396905999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="H61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="8">
+        <f>F57</f>
+        <v>1.0155058399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -48932,7 +54427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B93849-8974-475C-BE87-AD9897E39CA3}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -49467,7 +54962,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>92012</v>
@@ -51277,7 +56772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31E918F-BE4A-40C5-A018-44D59302090D}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -51749,8 +57244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE33D3-B54D-48EF-9061-A08EA7365F7B}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -51819,7 +57314,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>85580</v>

--- a/SWMH_exam.xlsx
+++ b/SWMH_exam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yamakawa00\src\github.com\ryuchan00\Minlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16800E42-DF8F-46BA-A252-0E656E05E923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68AFA3E-05E5-4A7F-B5F3-C676DE4FC50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16297" yWindow="-8108" windowWidth="16395" windowHeight="28275" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete_valのための探索が何回まで行えばよいか" sheetId="1" r:id="rId1"/>
@@ -663,16 +663,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Minlistのスキャン回数指定</t>
-    <rPh sb="12" eb="14">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>実行時間の平均(sec)</t>
     <rPh sb="0" eb="4">
       <t>ジッコウジカン</t>
@@ -680,14 +670,6 @@
     <rPh sb="5" eb="7">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AIAT</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>PWCM</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -702,6 +684,24 @@
     <rPh sb="0" eb="5">
       <t>クウカンケイサンリョウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Minlistのスキャン回数指定(A)</t>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>(A)+AIを基にした割り当て表(B)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>(A)+(B)+PWCM</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12094,10 +12094,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>スキャン</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>探索回数による</a:t>
+              <a:t>回数による</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
@@ -32372,7 +32378,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -33934,7 +33942,7 @@
   <dimension ref="A1:APK14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="APL2" sqref="APL2"/>
+      <selection activeCell="AS25" sqref="AS25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -48629,7 +48637,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -49094,7 +49102,7 @@
   <dimension ref="C3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -49106,12 +49114,12 @@
     <row r="3" spans="3:4">
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="9">
         <f>スライディングウィンドウだけの処理の空間計算量!C52</f>
@@ -49129,7 +49137,7 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9">
         <f>'ヒストグラムのサイズ削減によるメモリ測定4回目 (2)'!C52</f>
@@ -49138,7 +49146,7 @@
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="9">
         <f>'ActiveIndexの割り当て表削減のメモリ測定 (2)'!C52</f>
@@ -49147,7 +49155,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="9">
         <f>CountMinSketchのサイズ削減によるメモリ測定!C56</f>
@@ -52967,8 +52975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628D132-5A5E-4273-B270-88A0E1D47381}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H58" sqref="H1:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -52979,7 +52987,7 @@
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53913,7 +53921,7 @@
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -53927,7 +53935,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="H59" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8">
         <f>D57</f>
@@ -53936,7 +53944,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="H60" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8">
         <f>E57</f>
@@ -53945,7 +53953,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="H61" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8">
         <f>F57</f>
@@ -53963,7 +53971,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -54427,8 +54435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B93849-8974-475C-BE87-AD9897E39CA3}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
